--- a/data/evaluation/evaluation_HaSharon_Winter_Lemons.xlsx
+++ b/data/evaluation/evaluation_HaSharon_Winter_Lemons.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2460.336956521739</v>
+        <v>2197.510869565217</v>
       </c>
       <c r="C3" t="n">
-        <v>8381692.894021739</v>
+        <v>6781274.415760869</v>
       </c>
       <c r="D3" t="n">
-        <v>2895.115350728143</v>
+        <v>2604.088019971842</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.6439045289032859</v>
+        <v>-0.3300138605360319</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1958.602052398086</v>
+        <v>1910.316018389823</v>
       </c>
       <c r="C4" t="n">
-        <v>5597411.66933261</v>
+        <v>5245927.011463474</v>
       </c>
       <c r="D4" t="n">
-        <v>2365.884965363407</v>
+        <v>2290.398876061432</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.09782242199723745</v>
+        <v>-0.02888560598442247</v>
       </c>
     </row>
     <row r="5">
